--- a/data/Subset 1/ECILIO DIMAS pt 2.xlsx
+++ b/data/Subset 1/ECILIO DIMAS pt 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,18 +625,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No está bien.</t>
+          <t>No está bien. (It's not good.)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>4 - Making a Claim</t>
         </is>
       </c>
     </row>
@@ -646,22 +646,22 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(It's not good.)</t>
+          <t>Porque este está cobrando mas que tiene que cobrar. (Because this one is costing more than it has to cost.)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4 - Making a Claim</t>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
         </is>
       </c>
     </row>
@@ -671,22 +671,22 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Porque este está cobrando mas que tiene que cobrar.</t>
+          <t>Si no fueran aqui, fueron 24. (If it weren't here, they were 24.)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
         </is>
       </c>
     </row>
@@ -696,22 +696,22 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(Because this one is costing more than it has to cost.)</t>
+          <t>Oh, sí. (Oh, yes.)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
+          <t>2 - Relating to Another Student</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Si no fueran aqui, fueron 24.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>So, if 0 is important, I'd like you to tell me with thumbs-up under your chin, if 0 is not important, show me with thumbs-down.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -746,24 +746,24 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(If it weren't here, they were 24.)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>Okay.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -771,24 +771,24 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oh, sí.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+          <t>Hands down.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>1 - None</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -796,24 +796,24 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(Oh, yes.)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2 - Relating to Another Student</t>
-        </is>
-      </c>
+          <t>Why is 0 important?</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9 - Press for Reasoning</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -825,17 +825,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>So, if 0 is important, I'd like you to tell me with thumbs-up under your chin, if 0 is not important, show me with thumbs-down.</t>
+          <t>Again, why is 0 important?</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>9 - Press for Reasoning</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -850,17 +850,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>Katie?</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -871,24 +871,24 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hands down.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Because it's showing you that with with On, with Online Flix, and Mail Flix, you still have to pay the monthly fee even though you're not buying any movies.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -896,21 +896,21 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Why is 0 important?</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9 - Press for Reasoning</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -921,21 +921,21 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Again, why is 0 important?</t>
+          <t>Could I have someone restate what Katie just shared?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9 - Press for Reasoning</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -946,16 +946,16 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Katie?</t>
+          <t>Hailey?</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -971,16 +971,16 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Because it's showing you that with with On, with Online Flix, and Mail Flix, you still have to pay the monthly fee even though you're not buying any movies.</t>
+          <t>Like, even though, like it says for either one of them that you have to pay a fee, and you're still paying it, but on Movie Busters, if you don't get anything you're not gonna have a fee to pay.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -996,11 +996,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,24 +1021,24 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Could I have someone restate what Katie just shared?</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>So it goes by what you rent.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1046,21 +1046,21 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hailey?</t>
+          <t>How would you, thank you.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1071,24 +1071,24 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Like, even though, like it says for either one of them that you have to pay a fee, and you're still paying it, but on Movie Busters, if you don't get anything you're not gonna have a fee to pay.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>How would you help Student A make sense of the plans in this table?</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8 - Press for Accuracy</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1096,21 +1096,21 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>How would you help Student A make sense of it?</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1121,24 +1121,24 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>So it goes by what you rent.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>Jessica?</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1146,24 +1146,24 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>How would you, thank you.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>You would get, I think, I would get rid of the 0.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1171,24 +1171,24 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>How would you help Student A make sense of the plans in this table?</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>‘Cause it's kind of confusing.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1196,24 +1196,24 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>How would you help Student A make sense of it?</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>And then start off with 13.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1221,24 +1221,24 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jessica?</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Instead of 12.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>You would get, I think, I would get rid of the 0.</t>
+          <t>So they don't think that 12 plus 12 is 24.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>‘Cause it's kind of confusing.</t>
+          <t>So I would get rid of the 0.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1296,24 +1296,24 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>And then start off with 13.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>Okay.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1321,24 +1321,24 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Instead of 12.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>What else could we do, what else could a person suggest to Student A to help them with their table?</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8 - Press for Accuracy</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1346,24 +1346,24 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>So they don't think that 12 plus 12 is 24.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>Kyle?</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1371,22 +1371,22 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>So I would get rid of the 0.</t>
+          <t>You could tell them that you don't have to pay the first fee for every rental, you just have to pay $1.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
+          <t>4 - Making a Claim</t>
         </is>
       </c>
     </row>
@@ -1396,21 +1396,21 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>Okay, so, if you were to help them figure out that this was not 25, what would you tell them?</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1421,24 +1421,24 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>What else could we do, what else could a person suggest to Student A to help them with their table?</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Uh, that you don't pay the flat fee for every rental, you just pay $1.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1446,21 +1446,21 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kyle?</t>
+          <t>So what would it cost for 1 movie from Online Flix?</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1471,16 +1471,16 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>You could tell them that you don't have to pay the first fee for every rental, you just have to pay $1.</t>
+          <t>$13.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1496,16 +1496,16 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Okay, so, if you were to help them figure out that this was not 25, what would you tell them?</t>
+          <t>And how did you get your 13?</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1521,22 +1521,22 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Uh, that you don't pay the flat fee for every rental, you just pay $1.</t>
+          <t>Because 12 plus 1 is 13.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4 - Making a Claim</t>
+          <t>5 - Providing Evidence/Explaining Reasoning</t>
         </is>
       </c>
     </row>
@@ -1546,124 +1546,24 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CECILIO DIMAS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>So what would it cost for 1 movie from Online Flix?</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>20</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>STUDENT</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>$13.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>21</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>CECILIO DIMAS</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>And how did you get your 13?</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>22</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>STUDENT</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Because 12 plus 1 is 13.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence/Explaining Reasoning</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>23</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>CECILIO DIMAS</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Okay.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
